--- a/data/HR1/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD3E9F1-DB95-4472-8CFE-1D32179DB2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E2C57-38DA-442B-B184-B2E7BD6AE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39450" yWindow="-5625" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -150,7 +150,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>5.0000000000000001E-3</v>
+            <v>0.01</v>
           </cell>
         </row>
         <row r="5">
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.0511401320407892</v>
+        <v>1.1046221254112047</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1513,99 +1513,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[2]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>45.945335171502897</v>
+        <v>48.28303310172376</v>
       </c>
       <c r="C2" s="2">
         <f>'[2]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>42.870750285283584</v>
+        <v>45.052013384895979</v>
       </c>
       <c r="D2" s="2">
         <f>'[2]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>41.04965000652291</v>
+        <v>43.138255552621068</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>38.495379485663804</v>
+        <v>40.454023787871847</v>
       </c>
       <c r="F2" s="2">
         <f>'[2]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>39.64375007991837</v>
+        <v>41.660823459883588</v>
       </c>
       <c r="G2" s="2">
         <f>'[2]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>42.828704680001962</v>
+        <v>45.007828499879544</v>
       </c>
       <c r="H2" s="2">
         <f>'[2]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>51.815952808950705</v>
+        <v>54.452347672145343</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>54.228319411984316</v>
+        <v>56.98745544996406</v>
       </c>
       <c r="J2" s="2">
         <f>'[2]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>57.024352163212811</v>
+        <v>59.925750303557855</v>
       </c>
       <c r="K2" s="2">
         <f>'[2]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>56.590756858745983</v>
+        <v>59.470093676825734</v>
       </c>
       <c r="L2" s="2">
         <f>'[2]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>55.500198971753669</v>
+        <v>58.324048221711614</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>55.229530387753158</v>
+        <v>58.039608024418222</v>
       </c>
       <c r="N2" s="2">
         <f>'[2]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>53.090460219050151</v>
+        <v>55.791701999206417</v>
       </c>
       <c r="O2" s="2">
         <f>'[2]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>52.341522874971098</v>
+        <v>55.004658734850942</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>51.314033395901227</v>
+        <v>53.924890607261489</v>
       </c>
       <c r="Q2" s="2">
         <f>'[2]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>51.4165195587752</v>
+        <v>54.032591264489078</v>
       </c>
       <c r="R2" s="2">
         <f>'[2]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>52.210130358465996</v>
+        <v>54.866580969174542</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>54.790679382626138</v>
+        <v>57.578428287059047</v>
       </c>
       <c r="T2" s="2">
         <f>'[2]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>57.413274012067909</v>
+        <v>60.334460489960009</v>
       </c>
       <c r="U2" s="2">
         <f>'[2]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>57.854752867525043</v>
+        <v>60.798401782632716</v>
       </c>
       <c r="V2" s="2">
         <f>'[2]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>56.519804899833225</v>
+        <v>59.395531683360474</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>52.969579103865463</v>
+        <v>55.664670454784137</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>47.808481055545194</v>
+        <v>50.240975819015119</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>44.87317223682129</v>
+        <v>47.156318533804331</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -1614,99 +1614,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[2]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>42.907540189905014</v>
+        <v>45.090675159285375</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>40.50042928753161</v>
+        <v>42.561090492093719</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>37.877834658089832</v>
+        <v>39.805058289192758</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>36.185499045504166</v>
+        <v>38.02661666728072</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>38.198432398362279</v>
+        <v>40.141968037443185</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>40.237644254521413</v>
+        <v>42.28493496074092</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>46.460393836202883</v>
+        <v>48.824297943175253</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>48.531139896323239</v>
+        <v>51.000403530235324</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>50.959273601337465</v>
+        <v>53.552080639935213</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>51.300894144250712</v>
+        <v>53.91108283069385</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>49.824042258733414</v>
+        <v>52.35908874449111</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>48.799180629993636</v>
+        <v>51.282082172215176</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>47.306561642495708</v>
+        <v>49.713518754131265</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>46.807270079776345</v>
+        <v>49.18882324456095</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>44.720756917675374</v>
+        <v>46.996148325619707</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>44.368624973441712</v>
+        <v>46.62609991360695</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>45.283116888317196</v>
+        <v>47.587121162714702</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>49.929156271937487</v>
+        <v>52.469550957032226</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>52.273198766388447</v>
+        <v>54.932858296699216</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>53.093088069380265</v>
+        <v>55.794463554519957</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>53.387407306351683</v>
+        <v>56.103757749635086</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>51.017086308599701</v>
+        <v>53.612834856832819</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>46.202864503852886</v>
+        <v>48.553665522449499</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>43.843054907421319</v>
+        <v>46.073788850901352</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -1715,99 +1715,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[2]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>48.983130153100774</v>
+        <v>51.475391044162144</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>45.241071283035566</v>
+        <v>47.542936277698253</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>44.221465354956003</v>
+        <v>46.471452816049386</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>40.805259925823435</v>
+        <v>42.881430908462967</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>41.089067761474453</v>
+        <v>43.179678882323998</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>45.419765105482497</v>
+        <v>47.730722039018161</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>57.17151178169852</v>
+        <v>60.080397401115427</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>59.925498927645386</v>
+        <v>62.97450736969278</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>63.089430725088171</v>
+        <v>66.299419967180512</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>61.880619573241255</v>
+        <v>65.029104522957624</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>61.176355684773931</v>
+        <v>64.289007698932124</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>61.659880145512687</v>
+        <v>64.79713387662126</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>58.8743587956046</v>
+        <v>61.869885244281576</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>57.875775670165851</v>
+        <v>60.820494225140934</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>57.90730987412708</v>
+        <v>60.85363288890327</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>58.464414144108687</v>
+        <v>61.439082615371206</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>59.137143828614796</v>
+        <v>62.146040775634376</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>59.652202493314782</v>
+        <v>62.687305617085869</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>62.553349257747364</v>
+        <v>65.736062683220794</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>62.616417665669807</v>
+        <v>65.802340010745468</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>59.652202493314782</v>
+        <v>62.687305617085869</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>54.922071899131232</v>
+        <v>57.716506052735447</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>49.414097607237494</v>
+        <v>51.928286115580732</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>45.903289566221261</v>
+        <v>48.238848216707311</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -1961,99 +1961,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[2]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="C2" s="2">
         <f>'[2]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="D2" s="2">
         <f>'[2]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="F2" s="2">
         <f>'[2]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="G2" s="2">
         <f>'[2]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="H2" s="2">
         <f>'[2]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="J2" s="2">
         <f>'[2]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="K2" s="2">
         <f>'[2]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="L2" s="2">
         <f>'[2]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="N2" s="2">
         <f>'[2]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="O2" s="2">
         <f>'[2]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="Q2" s="2">
         <f>'[2]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="R2" s="2">
         <f>'[2]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="T2" s="2">
         <f>'[2]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="U2" s="2">
         <f>'[2]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="V2" s="2">
         <f>'[2]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>50.576045428197574</v>
+        <v>53.149353823379023</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2062,99 +2062,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[2]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>46.250603784849737</v>
+        <v>48.603833777311927</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2163,99 +2163,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[2]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>54.901487071545432</v>
+        <v>57.694873869446141</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2409,99 +2409,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[2]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>39.175992721160213</v>
+        <v>41.169266614075603</v>
       </c>
       <c r="C2" s="2">
         <f>'[2]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>35.749275890707239</v>
+        <v>37.568198485235072</v>
       </c>
       <c r="D2" s="2">
         <f>'[2]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>34.235634100568504</v>
+        <v>35.977542624642936</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>33.615461422664438</v>
+        <v>35.325815570650327</v>
       </c>
       <c r="F2" s="2">
         <f>'[2]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>33.773132442470555</v>
+        <v>35.491508889462011</v>
       </c>
       <c r="G2" s="2">
         <f>'[2]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>38.229966602323501</v>
+        <v>40.175106701205515</v>
       </c>
       <c r="H2" s="2">
         <f>'[2]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>39.848722405666315</v>
+        <v>41.876224774338766</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>39.848722405666315</v>
+        <v>41.876224774338766</v>
       </c>
       <c r="J2" s="2">
         <f>'[2]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>41.877422860505042</v>
+        <v>44.008145476382403</v>
       </c>
       <c r="K2" s="2">
         <f>'[2]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>41.982536873709115</v>
+        <v>44.118607688923518</v>
       </c>
       <c r="L2" s="2">
         <f>'[2]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>41.877422860505042</v>
+        <v>44.008145476382403</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>42.056116682951973</v>
+        <v>44.195931237702297</v>
       </c>
       <c r="N2" s="2">
         <f>'[2]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>41.456966807688723</v>
+        <v>43.566296626217913</v>
       </c>
       <c r="O2" s="2">
         <f>'[2]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>41.194181774678526</v>
+        <v>43.290141094865113</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>40.332246866405079</v>
+        <v>42.384350952027923</v>
       </c>
       <c r="Q2" s="2">
         <f>'[2]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>39.091901510596948</v>
+        <v>41.080896844042705</v>
       </c>
       <c r="R2" s="2">
         <f>'[2]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>36.768881818786802</v>
+        <v>38.63968194688394</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>39.281106734364286</v>
+        <v>41.279728826616719</v>
       </c>
       <c r="T2" s="2">
         <f>'[2]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>40.784237123182614</v>
+        <v>42.859338465954743</v>
       </c>
       <c r="U2" s="2">
         <f>'[2]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>41.940491268427486</v>
+        <v>44.074422803907069</v>
       </c>
       <c r="V2" s="2">
         <f>'[2]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>41.03651075487241</v>
+        <v>43.124447776053429</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>41.877422860505042</v>
+        <v>44.008145476382403</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>41.793331649941777</v>
+        <v>43.919775706349498</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>40.090484636035697</v>
+        <v>42.130287863183348</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2510,99 +2510,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[2]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>41.709240439378512</v>
+        <v>43.831405936316607</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>36.789904621427624</v>
+        <v>38.661774389392164</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>40.153553043958148</v>
+        <v>42.196565190708021</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>38.787070872305115</v>
+        <v>40.760556427673457</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>39.533380366054082</v>
+        <v>41.544838136715413</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>40.153553043958148</v>
+        <v>42.196565190708021</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>39.112924313237762</v>
+        <v>41.10298928655093</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>42.234810505398904</v>
+        <v>44.383716999022205</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>45.030843256627413</v>
+        <v>47.322011852616015</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>45.230559881715159</v>
+        <v>47.531890056444141</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>45.672038737172294</v>
+        <v>47.995831349116848</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>46.533973645445741</v>
+        <v>48.901621491954039</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>47.269771737874287</v>
+        <v>49.674856979741875</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>48.49960569236201</v>
+        <v>50.967264866472988</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>46.660110461290628</v>
+        <v>49.034176147003379</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>45.209537079074337</v>
+        <v>47.509797613935916</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>45.051866059268221</v>
+        <v>47.344104295124232</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>45.966357974143705</v>
+        <v>48.305125544231977</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>46.218631605833501</v>
+        <v>48.570234854330671</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>47.196191928631428</v>
+        <v>49.59753343096309</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>47.774319001253872</v>
+        <v>50.205075599939256</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>48.510117093682418</v>
+        <v>50.9783110877271</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>47.269771737874287</v>
+        <v>49.674856979741875</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>44.673455611733537</v>
+        <v>46.946440329976198</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2611,99 +2611,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[2]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>35.097569008841951</v>
+        <v>36.883332767480127</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>32.396138869497122</v>
+        <v>34.044453905173327</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>30.367438414658398</v>
+        <v>31.912533203129705</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>29.883913953919635</v>
+        <v>31.404407025440552</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>30.914031283319609</v>
+        <v>32.486936708343535</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>36.148709140882737</v>
+        <v>37.987954892891331</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>47.553579573525305</v>
+        <v>49.973104953602906</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>45.114934467190672</v>
+        <v>47.410381622648913</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>47.175169125990621</v>
+        <v>49.575440988454872</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>46.565507849406956</v>
+        <v>48.934760155716369</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>43.159813821594803</v>
+        <v>45.355784469384069</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>41.940491268427486</v>
+        <v>44.074422803907069</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>46.439371033562061</v>
+        <v>48.802205500667029</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>47.490511165602854</v>
+        <v>49.906827626078233</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>47.175169125990621</v>
+        <v>49.575440988454872</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>46.618064856008999</v>
+        <v>48.98999126198693</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>46.618064856008999</v>
+        <v>48.98999126198693</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>47.175169125990621</v>
+        <v>49.575440988454872</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>48.541651297643639</v>
+        <v>51.011449751489437</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>50.328589522112985</v>
+        <v>52.889307364688484</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>53.797351957847589</v>
+        <v>56.534560378545457</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>58.537993953351545</v>
+        <v>61.516406164149991</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>53.366384503710869</v>
+        <v>56.081665307126869</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>47.301305941835508</v>
+        <v>49.707995643504212</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2857,99 +2857,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[2]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="C2" s="2">
         <f>'[2]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="D2" s="2">
         <f>'[2]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="E2" s="2">
         <f>'[2]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="F2" s="2">
         <f>'[2]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="G2" s="2">
         <f>'[2]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="H2" s="2">
         <f>'[2]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="I2" s="2">
         <f>'[2]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="J2" s="2">
         <f>'[2]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="K2" s="2">
         <f>'[2]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="L2" s="2">
         <f>'[2]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="M2" s="2">
         <f>'[2]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="N2" s="2">
         <f>'[2]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="O2" s="2">
         <f>'[2]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="P2" s="2">
         <f>'[2]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="Q2" s="2">
         <f>'[2]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="R2" s="2">
         <f>'[2]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="S2" s="2">
         <f>'[2]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="T2" s="2">
         <f>'[2]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="U2" s="2">
         <f>'[2]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="V2" s="2">
         <f>'[2]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="W2" s="2">
         <f>'[2]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="X2" s="2">
         <f>'[2]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
       <c r="Y2" s="2">
         <f>'[2]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>39.496590461432646</v>
+        <v>41.506176362326016</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2958,99 +2958,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[2]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="C3" s="2">
         <f>'[2]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="D3" s="2">
         <f>'[2]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="E3" s="2">
         <f>'[2]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="F3" s="2">
         <f>'[2]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="G3" s="2">
         <f>'[2]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="H3" s="2">
         <f>'[2]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="I3" s="2">
         <f>'[2]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="J3" s="2">
         <f>'[2]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="K3" s="2">
         <f>'[2]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="L3" s="2">
         <f>'[2]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="M3" s="2">
         <f>'[2]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="N3" s="2">
         <f>'[2]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="O3" s="2">
         <f>'[2]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="P3" s="2">
         <f>'[2]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="Q3" s="2">
         <f>'[2]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="R3" s="2">
         <f>'[2]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="S3" s="2">
         <f>'[2]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="T3" s="2">
         <f>'[2]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="U3" s="2">
         <f>'[2]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="V3" s="2">
         <f>'[2]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="W3" s="2">
         <f>'[2]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="X3" s="2">
         <f>'[2]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
       <c r="Y3" s="2">
         <f>'[2]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>44.218399529570874</v>
+        <v>46.468231001516926</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3059,99 +3059,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[2]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="C4" s="2">
         <f>'[2]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="D4" s="2">
         <f>'[2]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="E4" s="2">
         <f>'[2]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="F4" s="2">
         <f>'[2]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="G4" s="2">
         <f>'[2]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="H4" s="2">
         <f>'[2]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="I4" s="2">
         <f>'[2]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="J4" s="2">
         <f>'[2]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="K4" s="2">
         <f>'[2]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="L4" s="2">
         <f>'[2]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="M4" s="2">
         <f>'[2]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="N4" s="2">
         <f>'[2]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="O4" s="2">
         <f>'[2]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="P4" s="2">
         <f>'[2]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="Q4" s="2">
         <f>'[2]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="R4" s="2">
         <f>'[2]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="S4" s="2">
         <f>'[2]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="T4" s="2">
         <f>'[2]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="U4" s="2">
         <f>'[2]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="V4" s="2">
         <f>'[2]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="W4" s="2">
         <f>'[2]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="X4" s="2">
         <f>'[2]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
       <c r="Y4" s="2">
         <f>'[2]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>44.154455171538395</v>
+        <v>46.401033155554416</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/HR1/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{867E2C57-38DA-442B-B184-B2E7BD6AE473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59357C74-F214-4A36-B9E6-80FB9784A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39450" yWindow="-5625" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,10 +1363,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/HR1/Market Data/HR1_market_data_2030.xlsx
+++ b/data/HR1/Market Data/HR1_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59357C74-F214-4A36-B9E6-80FB9784A9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F411A-5DDD-4244-B14D-C5BA8B050767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1350,7 +1350,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,11 +1363,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>
